--- a/algo/mp2/release/daya.xlsx
+++ b/algo/mp2/release/daya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohgree/Library/Mobile Documents/com~apple~CloudDocs/sogang/sem4/cs2019-2/algo/mp2/release/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0FB762-FB1D-924E-9343-68347729ACF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD83243E-30C4-AC4B-9CFD-91C0500BBB79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="16520" xr2:uid="{F51D45C6-861F-D447-A051-A98CA17681A9}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>sorted data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -118,6 +122,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Total</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t> Execution Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -219,7 +253,7 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3.1000000000000001E-5</c:v>
+                  <c:v>5.0000000000000004E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.1E-5</c:v>
@@ -762,6 +796,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Logged Execution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t> Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -863,7 +927,7 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3.1000000000000001E-5</c:v>
+                  <c:v>5.0000000000000004E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.1E-5</c:v>
@@ -1405,6 +1469,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Logged Execution Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1938,6 +2028,1854 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Total</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t> Execution Time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> (Non-increasing data)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$L$1:$S$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$S$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4519999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.121972</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>11.777704</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-159A-FB42-B422-A71FEE8626AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$L$1:$S$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$S$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8580000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.147371</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.105183</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-159A-FB42-B422-A71FEE8626AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$L$1:$S$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$4:$S$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.9999999999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.13E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.052E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2520999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13052800000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.582163</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>17.845189000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-159A-FB42-B422-A71FEE8626AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$L$1:$S$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$5:$S$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2999999999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2102999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.122697</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.448844</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>14.408899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-159A-FB42-B422-A71FEE8626AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="55071648"/>
+        <c:axId val="55073328"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="55071648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55073328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="55073328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55071648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Logged Execution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t> Time (Non-increasing data)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$L$1:$S$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$S$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4519999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.121972</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>11.777704</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6AD5-D549-AD3F-112B8E593560}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$L$1:$S$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$S$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8580000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.147371</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.105183</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6AD5-D549-AD3F-112B8E593560}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$L$1:$S$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$4:$S$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.9999999999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.13E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.052E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2520999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13052800000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.582163</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>17.845189000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6AD5-D549-AD3F-112B8E593560}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$L$1:$S$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$5:$S$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2999999999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2102999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.122697</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.448844</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>14.408899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6AD5-D549-AD3F-112B8E593560}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="55071648"/>
+        <c:axId val="55073328"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="55071648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55073328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="55073328"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55071648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Logged Execution Time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> (Non-increasing data)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$P$1:$S$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$S$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>11.777704</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-D320-8147-A40B-78F2E30FB4A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$P$1:$S$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$3:$S$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14.105183</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D320-8147-A40B-78F2E30FB4A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$P$1:$S$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$4:$S$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.2520999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13052800000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.582163</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>17.845189000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-D320-8147-A40B-78F2E30FB4A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$P$1:$S$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$5:$S$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.2102999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.122697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.448844</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>14.408899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-D320-8147-A40B-78F2E30FB4A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="55071648"/>
+        <c:axId val="55073328"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="55071648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55073328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="55073328"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="0.125"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55071648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2058,6 +3996,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3091,6 +5109,1038 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3682,16 +6732,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>13957</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>13956</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>13956</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>13957</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>27913</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3713,6 +6763,120 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>27911</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>13957</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="차트 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA9D66A4-E43F-4645-AA60-735D874AE954}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>57080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="차트 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{544A8277-A1CA-FA4F-B31B-342E34DD6A07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>13957</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="차트 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4501F8F8-5B53-BE49-97CA-D30E7EA3E257}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4018,10 +7182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D849AC88-2DE2-D748-95B8-115CBD9E398D}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="91" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4029,7 +7193,7 @@
     <col min="2" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:19">
       <c r="B1">
         <v>10</v>
       </c>
@@ -4054,13 +7218,40 @@
       <c r="I1">
         <v>100000000</v>
       </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>100</v>
+      </c>
+      <c r="N1">
+        <v>1000</v>
+      </c>
+      <c r="O1">
+        <v>10000</v>
+      </c>
+      <c r="P1">
+        <v>100000</v>
+      </c>
+      <c r="Q1">
+        <v>1000000</v>
+      </c>
+      <c r="R1">
+        <v>10000000</v>
+      </c>
+      <c r="S1">
+        <v>100000000</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>3.1000000000000001E-5</v>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="C2" s="1">
         <v>1.1E-5</v>
@@ -4078,8 +7269,28 @@
         <v>578.53528300000005</v>
       </c>
       <c r="H2" s="1"/>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1.8E-5</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1.4519999999999999E-3</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.121972</v>
+      </c>
+      <c r="P2">
+        <v>11.777704</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4107,8 +7318,28 @@
       <c r="I3">
         <v>19.927453</v>
       </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="M3" s="1">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1.8580000000000001E-3</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.147371</v>
+      </c>
+      <c r="P3" s="1">
+        <v>14.105183</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4136,8 +7367,35 @@
       <c r="I4">
         <v>61.672646999999998</v>
       </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1.2E-5</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1.13E-4</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1.052E-3</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1.2520999999999999E-2</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.13052800000000001</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1.582163</v>
+      </c>
+      <c r="S4">
+        <v>17.845189000000001</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4164,11 +7422,39 @@
       </c>
       <c r="I5">
         <v>18.649106</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5" s="1">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="N5" s="1">
+        <v>9.2999999999999997E-5</v>
+      </c>
+      <c r="O5" s="1">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1.2102999999999999E-2</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.122697</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1.448844</v>
+      </c>
+      <c r="S5">
+        <v>14.408899</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/algo/mp2/release/daya.xlsx
+++ b/algo/mp2/release/daya.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohgree/Library/Mobile Documents/com~apple~CloudDocs/sogang/sem4/cs2019-2/algo/mp2/release/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD83243E-30C4-AC4B-9CFD-91C0500BBB79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684FAA49-4398-2C41-BD72-0B684ADDE58E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="16520" xr2:uid="{F51D45C6-861F-D447-A051-A98CA17681A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3498,15 +3498,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -7184,8 +7175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D849AC88-2DE2-D748-95B8-115CBD9E398D}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
